--- a/forecast_summary_B0CMJSH15D.xlsx
+++ b/forecast_summary_B0CMJSH15D.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C2" t="n">
         <v>817.5319578509459</v>
       </c>
       <c r="D2" t="n">
-        <v>983.2486212881406</v>
+        <v>990.331830717654</v>
       </c>
       <c r="E2" t="n">
         <v>603</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C3" t="n">
         <v>844.9903598944933</v>
       </c>
       <c r="D3" t="n">
-        <v>1011.095144356351</v>
+        <v>1006.227232724393</v>
       </c>
       <c r="E3" t="n">
         <v>411</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C4" t="n">
         <v>661.9269103122699</v>
       </c>
       <c r="D4" t="n">
-        <v>828.8508005526627</v>
+        <v>823.5585567609106</v>
       </c>
       <c r="E4" t="n">
         <v>383</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C5" t="n">
         <v>369.8110079072472</v>
       </c>
       <c r="D5" t="n">
-        <v>525.3355350144091</v>
+        <v>530.693503502442</v>
       </c>
       <c r="E5" t="n">
         <v>297</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>182.362823807513</v>
       </c>
       <c r="D6" t="n">
-        <v>345.6954961149751</v>
+        <v>346.799016615904</v>
       </c>
       <c r="E6" t="n">
         <v>295</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>236.016320886215</v>
       </c>
       <c r="D7" t="n">
-        <v>391.75924739574</v>
+        <v>398.4920767236888</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>467.6869089741908</v>
       </c>
       <c r="D8" t="n">
-        <v>634.9565981123147</v>
+        <v>630.2177654080667</v>
       </c>
       <c r="E8" t="n">
         <v>281</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>695.1848860267843</v>
       </c>
       <c r="D9" t="n">
-        <v>854.8761870570852</v>
+        <v>853.0235739680393</v>
       </c>
       <c r="E9" t="n">
         <v>288</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C10" t="n">
         <v>798.8526602863735</v>
       </c>
       <c r="D10" t="n">
-        <v>956.0295918205129</v>
+        <v>965.9850569168841</v>
       </c>
       <c r="E10" t="n">
         <v>293</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>794.9399562601078</v>
       </c>
       <c r="D11" t="n">
-        <v>956.9458490233279</v>
+        <v>958.9690261704809</v>
       </c>
       <c r="E11" t="n">
         <v>282</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>746.2395631371523</v>
       </c>
       <c r="D12" t="n">
-        <v>910.2816569997216</v>
+        <v>909.5024726574313</v>
       </c>
       <c r="E12" t="n">
         <v>283</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C13" t="n">
         <v>663.8360757911063</v>
       </c>
       <c r="D13" t="n">
-        <v>836.0541641411926</v>
+        <v>826.8464689693839</v>
       </c>
       <c r="E13" t="n">
         <v>273</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C14" t="n">
         <v>539.0334043634042</v>
       </c>
       <c r="D14" t="n">
-        <v>716.4527793361069</v>
+        <v>698.2955424709497</v>
       </c>
       <c r="E14" t="n">
         <v>284</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C15" t="n">
         <v>435.7474792606048</v>
       </c>
       <c r="D15" t="n">
-        <v>602.3851512092016</v>
+        <v>590.5806851668037</v>
       </c>
       <c r="E15" t="n">
         <v>275</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>469.5524923610586</v>
       </c>
       <c r="D16" t="n">
-        <v>630.9752549989462</v>
+        <v>632.5415669265299</v>
       </c>
       <c r="E16" t="n">
         <v>268</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C17" t="n">
         <v>659.5266397625458</v>
       </c>
       <c r="D17" t="n">
-        <v>819.8085723072542</v>
+        <v>814.4689089593398</v>
       </c>
       <c r="E17" t="n">
         <v>269</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C18" t="n">
         <v>849.4980951408313</v>
       </c>
       <c r="D18" t="n">
-        <v>1020.612277637708</v>
+        <v>1009.968913313166</v>
       </c>
       <c r="E18" t="n">
         <v>258</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C19" t="n">
         <v>845.9836452313124</v>
       </c>
       <c r="D19" t="n">
-        <v>1018.178544870081</v>
+        <v>1001.06993871596</v>
       </c>
       <c r="E19" t="n">
         <v>257</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C20" t="n">
         <v>639.6874321569244</v>
       </c>
       <c r="D20" t="n">
-        <v>811.6045571020405</v>
+        <v>798.9646493929607</v>
       </c>
       <c r="E20" t="n">
         <v>277</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C21" t="n">
         <v>432.0093388112914</v>
       </c>
       <c r="D21" t="n">
-        <v>589.582833772471</v>
+        <v>600.8760111070137</v>
       </c>
       <c r="E21" t="n">
         <v>255</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B650 A ELITE AX ICE</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9647</t>
+          <t>9643</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>866</t>
         </is>
       </c>
     </row>
